--- a/biology/Zoologie/Endless_Ocean_2___Aventuriers_des_fonds_marins/Endless_Ocean_2___Aventuriers_des_fonds_marins.xlsx
+++ b/biology/Zoologie/Endless_Ocean_2___Aventuriers_des_fonds_marins/Endless_Ocean_2___Aventuriers_des_fonds_marins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Endless Ocean 2 : Aventuriers des fonds marins (en anglais : Endless Ocean 2: Adventures of the Deep ou Endless Ocean: Blue World) est un jeu vidéo de simulation de plongée sous-marine développé par Arika pour l'éditeur Nintendo. Il est sorti en septembre 2009 sur Wii. Il est la suite de Endless Ocean sorti en 2007.
 </t>
@@ -511,7 +523,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le soft vous offre 7 lieux à explorer (4 océans, 1 rivière, l'île principale et l'aquarium) ainsi que 349 animaux marins et terrestres à découvrir et à étudier. Le jeu introduit aussi des animaux légendaires tels que des versions plus grosses, albinos ou d’un comportement différent d’animaux déjà existants. Vous aurez la possibilité de jouer à plusieurs avec le micro Wii Speak. Vous pourrez amadouer les dauphins afin de leur apprendre de nouveaux tours, mais aussi revendre vos trouvailles pour personnaliser votre aquarium et votre récif.
 </t>
